--- a/reports/experiment_tracking.xlsx
+++ b/reports/experiment_tracking.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="n1000000_f_init5_cont0_disc5_sep5p1_seed0_mlp_001_optimal_summary" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="n1000000_f_init5_cont0_disc5_se" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="n1000_f_init5_cont0_disc5_sep5p" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -719,4 +720,113 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A8:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="8">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Test Loss (BCE)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0155</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>F1-Score</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9921</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0101</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9865</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0197</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0045</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>